--- a/EXCEL_OUPUT/2021 Financial Report - Wisdom Properties Group (signed 1 Mar2022).xlsx
+++ b/EXCEL_OUPUT/2021 Financial Report - Wisdom Properties Group (signed 1 Mar2022).xlsx
@@ -20,23 +20,24 @@
     <sheet name="page21_table0" sheetId="11" r:id="rId11"/>
     <sheet name="page20_table0" sheetId="12" r:id="rId12"/>
     <sheet name="page20_table1" sheetId="13" r:id="rId13"/>
-    <sheet name="page19_table0" sheetId="14" r:id="rId14"/>
-    <sheet name="page19_table1" sheetId="15" r:id="rId15"/>
-    <sheet name="page18_table0" sheetId="16" r:id="rId16"/>
-    <sheet name="page17_table0" sheetId="17" r:id="rId17"/>
-    <sheet name="page17_table1" sheetId="18" r:id="rId18"/>
-    <sheet name="page13_table0" sheetId="19" r:id="rId19"/>
-    <sheet name="page9_table0" sheetId="20" r:id="rId20"/>
-    <sheet name="page8_table0" sheetId="21" r:id="rId21"/>
-    <sheet name="page7_table0" sheetId="22" r:id="rId22"/>
-    <sheet name="page6_table0" sheetId="23" r:id="rId23"/>
+    <sheet name="page20_table2" sheetId="14" r:id="rId14"/>
+    <sheet name="page19_table0" sheetId="15" r:id="rId15"/>
+    <sheet name="page19_table1" sheetId="16" r:id="rId16"/>
+    <sheet name="page18_table0" sheetId="17" r:id="rId17"/>
+    <sheet name="page17_table0" sheetId="18" r:id="rId18"/>
+    <sheet name="page17_table1" sheetId="19" r:id="rId19"/>
+    <sheet name="page13_table0" sheetId="20" r:id="rId20"/>
+    <sheet name="page9_table0" sheetId="21" r:id="rId21"/>
+    <sheet name="page8_table0" sheetId="22" r:id="rId22"/>
+    <sheet name="page7_table0" sheetId="23" r:id="rId23"/>
+    <sheet name="page6_table0" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="560">
   <si>
     <t>Name of Entity</t>
   </si>
@@ -119,13 +120,13 @@
     <t>Total comprehensive income</t>
   </si>
   <si>
-    <t>ContingentLiabilities of the Parent Entity</t>
+    <t>Contingent Liabilities of the Parent Entity</t>
   </si>
   <si>
     <t>Bank guarantees given as security bonds against housing construction contracts</t>
   </si>
   <si>
-    <t>NOTESTO THE ACCOUNTS</t>
+    <t>NOTES TO THE ACCOUNTS</t>
   </si>
   <si>
     <t>Consolidated</t>
@@ -134,13 +135,16 @@
     <t>Note</t>
   </si>
   <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>Reconciliation of Cash Flow from Operations with Profit After Income tax</t>
   </si>
   <si>
-    <t>Profitafterincome tax</t>
-  </si>
-  <si>
-    <t>Non-cash flows in profit from ordinary activities:</t>
+    <t>Profit afterincome tax</t>
+  </si>
+  <si>
+    <t>Non-cash flows in profit fromordinary activities:</t>
   </si>
   <si>
     <t>Amortisation</t>
@@ -158,7 +162,7 @@
     <t>Changes in assets and liabilities:</t>
   </si>
   <si>
-    <t>(Increase) Decrease in trade and otherreceivables</t>
+    <t>(Increase) Decrease in trade and other receivables</t>
   </si>
   <si>
     <t>(Increase) Decrease in inventories</t>
@@ -314,16 +318,13 @@
     <t>Disposals</t>
   </si>
   <si>
-    <t>Ar mortisation expense</t>
-  </si>
-  <si>
-    <t>Balance at 31 December2020</t>
-  </si>
-  <si>
     <t>Amortisation expense</t>
   </si>
   <si>
-    <t>Balance at 31 December: 2021</t>
+    <t>Balance at 31 December 2020</t>
+  </si>
+  <si>
+    <t>Balance at 31 December 2021</t>
   </si>
   <si>
     <t>Building</t>
@@ -380,9 +381,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>8741342</t>
   </si>
   <si>
@@ -401,7 +399,7 @@
     <t>6964140</t>
   </si>
   <si>
-    <t>Balance at 1January</t>
+    <t>Balance at 1 January</t>
   </si>
   <si>
     <t>Liability increase due to additions</t>
@@ -425,7 +423,7 @@
     <t>Non-current</t>
   </si>
   <si>
-    <t>Balance at31 December</t>
+    <t>Balance at 31</t>
   </si>
   <si>
     <t>The following are the amounts recognised in profit or loss:</t>
@@ -434,16 +432,16 @@
     <t>Amortisation expense of right-of-use assets</t>
   </si>
   <si>
-    <t>Interest ex pense on lease liabilities</t>
-  </si>
-  <si>
-    <t>Expense relating to short-term leases and leases of low-value</t>
+    <t>Interest expense on lease liabilities</t>
+  </si>
+  <si>
+    <t>Expense relating to short-term leases and leases oflow-value</t>
   </si>
   <si>
     <t>assets (included in other expenses)</t>
   </si>
   <si>
-    <t>Total amount recognised in profit torloss</t>
+    <t>Total amount recognised in profit or loss</t>
   </si>
   <si>
     <t>15</t>
@@ -506,25 +504,22 @@
     <t>Total facilities</t>
   </si>
   <si>
-    <t>- Interchangeable facility</t>
+    <t>Interchangeable facility</t>
   </si>
   <si>
     <t>Used at reporting date</t>
   </si>
   <si>
-    <t>Interchangeable facility</t>
-  </si>
-  <si>
     <t>Unused at reporting date</t>
   </si>
   <si>
-    <t>23. EQUITY - RETAINED PROFITS</t>
+    <t>23. EQUITY RETAINED PROFITS</t>
   </si>
   <si>
     <t>Retained profits at the beginning of the financial year</t>
   </si>
   <si>
-    <t>Profitafterincome tax expense for the year</t>
+    <t>Profit afterincome tax expense for the year</t>
   </si>
   <si>
     <t>Dividends paid</t>
@@ -533,7 +528,7 @@
     <t>Retained profits at the end of the financial year</t>
   </si>
   <si>
-    <t>24. EQUITY - DIVIDENDS</t>
+    <t>24. EQUITY DIVIDENDS</t>
   </si>
   <si>
     <t>Dividends Paid</t>
@@ -548,10 +543,7 @@
     <t>Franking Credits</t>
   </si>
   <si>
-    <t>The amount of franking credits available on a tax paid basis for future</t>
-  </si>
-  <si>
-    <t>distributions are:</t>
+    <t>The amount of franking credits available on a tax paid basis for future distributions are:</t>
   </si>
   <si>
     <t>franking credits balance at the end of the financial year at the corporate tax rate of 30%</t>
@@ -587,988 +579,1009 @@
     <t>18389035</t>
   </si>
   <si>
-    <t>16. CURRENT LIABILITIES -I INTEREST-BEARING LOANS</t>
+    <t>16. CURRENT LIABILITIES - INTEREST-BEARING LOANS</t>
   </si>
   <si>
     <t>Bank loan</t>
   </si>
   <si>
-    <t>loan The Group has entered into a General Security Deed in connection with the $20 million bank agreement.</t>
-  </si>
-  <si>
-    <t>17. CURRENT LIABILITIES - EMPLOYEE BENEFITS</t>
+    <t>The Group has entered into a General Security Deed in connection with the $20 million bank loan agreement.</t>
+  </si>
+  <si>
+    <t>17. - CURRENT LIABILITIES EMPLOYEE BENEFITS</t>
   </si>
   <si>
     <t>Employee benefits</t>
   </si>
   <si>
-    <t>CURRENT LIABILITIES - CONTRACT LIABILITIES</t>
+    <t>CURRENT LIABILITIES CONTRACT LIABILITIES</t>
   </si>
   <si>
     <t>Customer deposits received</t>
   </si>
   <si>
-    <t>Unearned income</t>
-  </si>
-  <si>
-    <t>19. NON-CURRENT LIABILITIES- - LEASE LIABILITIES</t>
+    <t>Unearned</t>
+  </si>
+  <si>
+    <t>19. NON-CURRENT LIABILITIES - LEASE LIABILITIES</t>
+  </si>
+  <si>
+    <t>Lease liabilities 26</t>
+  </si>
+  <si>
+    <t>20. NON-CURRENT LIABILITIES - EMPLOYEE BENEFITS</t>
+  </si>
+  <si>
+    <t>21. NON-CURRENT LIABILITIES - DEFERREDTAX</t>
+  </si>
+  <si>
+    <t>Deferred tax liability</t>
+  </si>
+  <si>
+    <t>EQUITY ISSUED CAPITAL</t>
+  </si>
+  <si>
+    <t>Issued Capital</t>
+  </si>
+  <si>
+    <t>100,000,000 Ordinary shares fully paid</t>
+  </si>
+  <si>
+    <t>Movements</t>
+  </si>
+  <si>
+    <t>2021 $</t>
+  </si>
+  <si>
+    <t>1192602</t>
+  </si>
+  <si>
+    <t>6775418</t>
+  </si>
+  <si>
+    <t>14815433</t>
+  </si>
+  <si>
+    <t>21590851</t>
+  </si>
+  <si>
+    <t>641084</t>
+  </si>
+  <si>
+    <t>139505</t>
+  </si>
+  <si>
+    <t>13024053</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>1062011</t>
+  </si>
+  <si>
+    <t>4227514</t>
+  </si>
+  <si>
+    <t>12181967</t>
+  </si>
+  <si>
+    <t>16409481</t>
+  </si>
+  <si>
+    <t>722205</t>
+  </si>
+  <si>
+    <t>Total Issued</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>35962</t>
+  </si>
+  <si>
+    <t>(7,141)</t>
+  </si>
+  <si>
+    <t>28821</t>
+  </si>
+  <si>
+    <t>(6,964)</t>
+  </si>
+  <si>
+    <t>21857</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>712788</t>
+  </si>
+  <si>
+    <t>280507</t>
+  </si>
+  <si>
+    <t>(180,135)</t>
+  </si>
+  <si>
+    <t>813160</t>
+  </si>
+  <si>
+    <t>267053</t>
+  </si>
+  <si>
+    <t>(264,117)</t>
+  </si>
+  <si>
+    <t>816096</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>8386960</t>
+  </si>
+  <si>
+    <t>9135710</t>
+  </si>
+  <si>
+    <t>(187,276)</t>
+  </si>
+  <si>
+    <t>9228941</t>
+  </si>
+  <si>
+    <t>(271,081)</t>
+  </si>
+  <si>
+    <t>9224913</t>
+  </si>
+  <si>
+    <t>13. NON-CURRENT ASSETS - INTANGIBLES</t>
+  </si>
+  <si>
+    <t>Intellectual property at cost</t>
+  </si>
+  <si>
+    <t>Less accumulated amortisation</t>
+  </si>
+  <si>
+    <t>Software licences at cost</t>
+  </si>
+  <si>
+    <t>Goodwill at cost</t>
+  </si>
+  <si>
+    <t>Total Intangibles</t>
+  </si>
+  <si>
+    <t>106,757 (84,900)</t>
+  </si>
+  <si>
+    <t>1758403</t>
+  </si>
+  <si>
+    <t>(942,307)</t>
+  </si>
+  <si>
+    <t>106,757 (77,936)</t>
+  </si>
+  <si>
+    <t>1491350</t>
+  </si>
+  <si>
+    <t>(678,190)</t>
+  </si>
+  <si>
+    <t>12. NON-CURRENT ASSETS - PROPERTY, PLANT AND EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Display home land and buildings at cost</t>
+  </si>
+  <si>
+    <t>land at cost</t>
+  </si>
+  <si>
+    <t>buildings at cost</t>
+  </si>
+  <si>
+    <t>less accumulated depreciation</t>
+  </si>
+  <si>
+    <t>deposits on land for construction at cost</t>
+  </si>
+  <si>
+    <t>buildings under construction at cost</t>
+  </si>
+  <si>
+    <t>Leasehold improvements at cost</t>
+  </si>
+  <si>
+    <t>Less accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Vehicles and equipment at cost</t>
+  </si>
+  <si>
+    <t>Total Property, Plant and Equipment</t>
+  </si>
+  <si>
+    <t>8724387</t>
+  </si>
+  <si>
+    <t>7265703</t>
+  </si>
+  <si>
+    <t>(115,322)</t>
+  </si>
+  <si>
+    <t>15874768</t>
+  </si>
+  <si>
+    <t>74104</t>
+  </si>
+  <si>
+    <t>167572</t>
+  </si>
+  <si>
+    <t>16116444</t>
+  </si>
+  <si>
+    <t>3088066</t>
+  </si>
+  <si>
+    <t>(753,526)</t>
+  </si>
+  <si>
+    <t>2334540</t>
+  </si>
+  <si>
+    <t>3069878</t>
+  </si>
+  <si>
+    <t>(1,960,890)</t>
+  </si>
+  <si>
+    <t>1108988</t>
+  </si>
+  <si>
+    <t>19559972</t>
+  </si>
+  <si>
+    <t>9929053</t>
+  </si>
+  <si>
+    <t>11672028</t>
+  </si>
+  <si>
+    <t>(242,788)</t>
+  </si>
+  <si>
+    <t>21358293</t>
+  </si>
+  <si>
+    <t>188644</t>
+  </si>
+  <si>
+    <t>1152726</t>
+  </si>
+  <si>
+    <t>22699663</t>
+  </si>
+  <si>
+    <t>(575,974)</t>
+  </si>
+  <si>
+    <t>2512092</t>
+  </si>
+  <si>
+    <t>3557586</t>
+  </si>
+  <si>
+    <t>(1,825,346)</t>
+  </si>
+  <si>
+    <t>1732240</t>
+  </si>
+  <si>
+    <t>26943995</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Land and buildings</t>
+  </si>
+  <si>
+    <t>at cost</t>
+  </si>
+  <si>
+    <t>21562177</t>
+  </si>
+  <si>
+    <t>3642707</t>
+  </si>
+  <si>
+    <t>(2,403,255)</t>
+  </si>
+  <si>
+    <t>(101,966)</t>
+  </si>
+  <si>
+    <t>2255475</t>
+  </si>
+  <si>
+    <t>(8,719,477)</t>
+  </si>
+  <si>
+    <t>(119,217)</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>2691908</t>
+  </si>
+  <si>
+    <t>(179,816)</t>
+  </si>
+  <si>
+    <t>(177,552)</t>
+  </si>
+  <si>
+    <t>Vehicles and equipment</t>
+  </si>
+  <si>
+    <t>1873028</t>
+  </si>
+  <si>
+    <t>421366</t>
+  </si>
+  <si>
+    <t>(14,666)</t>
+  </si>
+  <si>
+    <t>(547,488)</t>
+  </si>
+  <si>
+    <t>48920</t>
+  </si>
+  <si>
+    <t>(202,197)</t>
+  </si>
+  <si>
+    <t>(469,975)</t>
+  </si>
+  <si>
+    <t>26127113</t>
+  </si>
+  <si>
+    <t>4064073</t>
+  </si>
+  <si>
+    <t>(2,417,921)</t>
+  </si>
+  <si>
+    <t>(829,270)</t>
+  </si>
+  <si>
+    <t>2304395</t>
+  </si>
+  <si>
+    <t>(8,921,674)</t>
+  </si>
+  <si>
+    <t>(766,744)</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7. CURRENT ASSETS CASH AND CASH EQUIVALENTS</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>10. CURRENT ASSETS PREPAYMENTS AND OTHER ASSETS</t>
+  </si>
+  <si>
+    <t>INCOME TAX EXPENSE</t>
+  </si>
+  <si>
+    <t>The prima facie tax on profit from ordinary activities before</t>
+  </si>
+  <si>
+    <t>income tax is reconciled to the income tax as follows:</t>
+  </si>
+  <si>
+    <t>Prima facie tax payable of profit from ordinary activities before income tax at 30%</t>
+  </si>
+  <si>
+    <t>Add the tax effect of:</t>
+  </si>
+  <si>
+    <t>non-assessable income</t>
+  </si>
+  <si>
+    <t>non-allowable deductions</t>
+  </si>
+  <si>
+    <t>(over) under provision in prior year</t>
+  </si>
+  <si>
+    <t>Income tax expense</t>
+  </si>
+  <si>
+    <t>Cash on hand</t>
+  </si>
+  <si>
+    <t>Cash at bank</t>
+  </si>
+  <si>
+    <t>Cash on term deposit</t>
+  </si>
+  <si>
+    <t>CURRENT ASSETS TRADE AND OTHER RECEIVABLES</t>
+  </si>
+  <si>
+    <t>Trade receivables</t>
+  </si>
+  <si>
+    <t>Other receivables</t>
+  </si>
+  <si>
+    <t>Loans to director related entity</t>
+  </si>
+  <si>
+    <t>CURRENT ASSETS - INVENTORIES</t>
+  </si>
+  <si>
+    <t>Work in progress at cost</t>
+  </si>
+  <si>
+    <t>Contract acquisition costs</t>
+  </si>
+  <si>
+    <t>Deposits and bonds</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>11. NON-CURRENT ASSETS - DEFERRED TAX</t>
+  </si>
+  <si>
+    <t>2388500</t>
+  </si>
+  <si>
+    <t>(137,043)</t>
+  </si>
+  <si>
+    <t>26268</t>
+  </si>
+  <si>
+    <t>40163</t>
+  </si>
+  <si>
+    <t>2317888</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>43336531</t>
+  </si>
+  <si>
+    <t>1436591</t>
+  </si>
+  <si>
+    <t>44774137</t>
+  </si>
+  <si>
+    <t>5812434</t>
+  </si>
+  <si>
+    <t>395052</t>
+  </si>
+  <si>
+    <t>10642</t>
+  </si>
+  <si>
+    <t>6218128</t>
+  </si>
+  <si>
+    <t>10777883</t>
+  </si>
+  <si>
+    <t>1488538</t>
+  </si>
+  <si>
+    <t>543750</t>
+  </si>
+  <si>
+    <t>569586</t>
+  </si>
+  <si>
+    <t>2601874</t>
+  </si>
+  <si>
+    <t>1673942</t>
+  </si>
+  <si>
+    <t>(72,940)</t>
+  </si>
+  <si>
+    <t>(42,160)</t>
+  </si>
+  <si>
+    <t>31013</t>
+  </si>
+  <si>
+    <t>1589855</t>
+  </si>
+  <si>
+    <t>30585444</t>
+  </si>
+  <si>
+    <t>1427754</t>
+  </si>
+  <si>
+    <t>32014213</t>
+  </si>
+  <si>
+    <t>9480234</t>
+  </si>
+  <si>
+    <t>230805</t>
+  </si>
+  <si>
+    <t>9392</t>
+  </si>
+  <si>
+    <t>9720431</t>
+  </si>
+  <si>
+    <t>22912737</t>
+  </si>
+  <si>
+    <t>1008152</t>
+  </si>
+  <si>
+    <t>945660</t>
+  </si>
+  <si>
+    <t>691779</t>
+  </si>
+  <si>
+    <t>2645591</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Revenue from Contracts with Customers</t>
+  </si>
+  <si>
+    <t>Rendering of construction services</t>
+  </si>
+  <si>
+    <t>Ready built home and land sales</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>OTHER GAINS OR LOSSES</t>
+  </si>
+  <si>
+    <t>Net gain (loss) on disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Other Gains or Losses</t>
+  </si>
+  <si>
+    <t>EXPENSES</t>
+  </si>
+  <si>
+    <t>Cost of Sales</t>
+  </si>
+  <si>
+    <t>Cost of construction</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
+  </si>
+  <si>
+    <t>Total Depreciation</t>
+  </si>
+  <si>
+    <t>Intellectual property</t>
+  </si>
+  <si>
+    <t>Right of use assets</t>
+  </si>
+  <si>
+    <t>Total Amortisation</t>
+  </si>
+  <si>
+    <t>Total Depreciation and Amortisation</t>
+  </si>
+  <si>
+    <t>Finance Expense</t>
+  </si>
+  <si>
+    <t>Lease liability interest</t>
+  </si>
+  <si>
+    <t>Interest on borrowings</t>
+  </si>
+  <si>
+    <t>Total Finance Expense</t>
+  </si>
+  <si>
+    <t>Superannuation Expense</t>
+  </si>
+  <si>
+    <t>Superannuation guarantee contribution expense</t>
+  </si>
+  <si>
+    <t>100 years</t>
+  </si>
+  <si>
+    <t>5-15 years</t>
+  </si>
+  <si>
+    <t>3-20 years</t>
+  </si>
+  <si>
+    <t>for the year ended 31 December 2021</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM OPERATING ACTIVITIES</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Income tax refunded (paid)</t>
+  </si>
+  <si>
+    <t>Net Cash Provided by (Used in) Operating Activities</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM INVESTING ACTIVITIES</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Payments for intellectual property and licences</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Net Cash Provided by (Used in) Investing Activities</t>
+  </si>
+  <si>
+    <t>CASH FLOWS FROM FINANCING ACTIVITIES</t>
+  </si>
+  <si>
+    <t>Payment of principal portion of lease liabilities</t>
+  </si>
+  <si>
+    <t>Loans with director related entities payments made</t>
+  </si>
+  <si>
+    <t>Proceeds from borrowings</t>
+  </si>
+  <si>
+    <t>Repayment ofborrowings</t>
+  </si>
+  <si>
+    <t>Net Cash Provided by (Used in) Financing Activities</t>
+  </si>
+  <si>
+    <t>Net Increase (Decrease) in Cash Held</t>
+  </si>
+  <si>
+    <t>Cash at the beginning of the year</t>
+  </si>
+  <si>
+    <t>CASHAND CASH EQUIVALENTS AT THE END OF THE YEAR</t>
+  </si>
+  <si>
+    <t>Wisdom Properties Group Pty Limited</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>184866217</t>
+  </si>
+  <si>
+    <t>(154,619,006)</t>
+  </si>
+  <si>
+    <t>176382</t>
+  </si>
+  <si>
+    <t>(111,266)</t>
+  </si>
+  <si>
+    <t>(1,486,052)</t>
+  </si>
+  <si>
+    <t>(2,304,395)</t>
+  </si>
+  <si>
+    <t>(267,053)</t>
+  </si>
+  <si>
+    <t>12770201</t>
+  </si>
+  <si>
+    <t>10198753</t>
+  </si>
+  <si>
+    <t>(1,250)</t>
+  </si>
+  <si>
+    <t>(20,000,000)</t>
+  </si>
+  <si>
+    <t>(26,265,104)</t>
+  </si>
+  <si>
+    <t>12759924</t>
+  </si>
+  <si>
+    <t>164801345</t>
+  </si>
+  <si>
+    <t>(177,628,175)</t>
+  </si>
+  <si>
+    <t>243827</t>
+  </si>
+  <si>
+    <t>(158,904)</t>
+  </si>
+  <si>
+    <t>424367</t>
+  </si>
+  <si>
+    <t>(4,064,073)</t>
+  </si>
+  <si>
+    <t>(280,507)</t>
+  </si>
+  <si>
+    <t>3454843</t>
+  </si>
+  <si>
+    <t>(889,737)</t>
+  </si>
+  <si>
+    <t>(8,753)</t>
+  </si>
+  <si>
+    <t>13601172</t>
+  </si>
+  <si>
+    <t>393895</t>
+  </si>
+  <si>
+    <t>31620318</t>
+  </si>
+  <si>
+    <t>Balance at I January 2020</t>
+  </si>
+  <si>
+    <t>Profit after income tax expense for the year</t>
+  </si>
+  <si>
+    <t>Other comprehensive income for the year, net of tax</t>
+  </si>
+  <si>
+    <t>Total comprehensive income for the year</t>
+  </si>
+  <si>
+    <t>Transactions with in their capacity as</t>
+  </si>
+  <si>
+    <t>Dividend paid</t>
+  </si>
+  <si>
+    <t>Total transactions with in their capacity as</t>
+  </si>
+  <si>
+    <t>Balance at 1January 2021</t>
+  </si>
+  <si>
+    <t>Transactions with owners in their capacity as</t>
+  </si>
+  <si>
+    <t>Total transactions with owners in their capacity as owners</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Issued</t>
+  </si>
+  <si>
+    <t>Retained Profits $</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>60641861</t>
+  </si>
+  <si>
+    <t>58927178</t>
+  </si>
+  <si>
+    <t>59537848</t>
+  </si>
+  <si>
+    <t>CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Trade and other receivables</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepayments and other assets</t>
+  </si>
+  <si>
+    <t>TOTAL CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>NON-CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>TOTAL NON CURRENT ASSETS</t>
+  </si>
+  <si>
+    <t>TOTAL ASSETS</t>
+  </si>
+  <si>
+    <t>CURRENT LIABILITIES</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
   </si>
   <si>
     <t>Lease liabilities</t>
   </si>
   <si>
-    <t>20. NON-CURRENT LIABILITIES - EMPLOYEE BENEFITS</t>
-  </si>
-  <si>
-    <t>21. NON-CURRENT LIABILITIES DEFERRED TAX</t>
-  </si>
-  <si>
-    <t>Deferred tax liability</t>
-  </si>
-  <si>
-    <t>EQUITY - ISSUED CAPITAL</t>
-  </si>
-  <si>
-    <t>Issued Capital</t>
-  </si>
-  <si>
-    <t>100,000,000Ordinaly shares fully paid</t>
-  </si>
-  <si>
-    <t>Movements</t>
-  </si>
-  <si>
-    <t>Balance at31 December2021</t>
-  </si>
-  <si>
-    <t>Ordinary Shares</t>
-  </si>
-  <si>
-    <t>loan</t>
+    <t>Interest-bearing loans</t>
+  </si>
+  <si>
+    <t>Contract liabilities</t>
+  </si>
+  <si>
+    <t>TOTAL CURRENTLIABILITIES</t>
+  </si>
+  <si>
+    <t>NON-CURRENT LIABILITIES</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>TOTALLIABILITIES</t>
+  </si>
+  <si>
+    <t>NET ASSETS</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>Retainedprofits</t>
+  </si>
+  <si>
+    <t>TOTAL EQUITY</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>1192602</t>
-  </si>
-  <si>
-    <t>6775418</t>
-  </si>
-  <si>
-    <t>14815433</t>
-  </si>
-  <si>
-    <t>21590851</t>
-  </si>
-  <si>
-    <t>641084</t>
-  </si>
-  <si>
-    <t>139505</t>
-  </si>
-  <si>
-    <t>13024053</t>
-  </si>
-  <si>
-    <t>Ordinary</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>1062011</t>
-  </si>
-  <si>
-    <t>4227514</t>
-  </si>
-  <si>
-    <t>12181967</t>
-  </si>
-  <si>
-    <t>16409481</t>
-  </si>
-  <si>
-    <t>722205</t>
-  </si>
-  <si>
-    <t>Total Issued</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>13. NON-CURRENT ASSETS - INTANGIBLES</t>
-  </si>
-  <si>
-    <t>Intellectual property at cost</t>
-  </si>
-  <si>
-    <t>Less accumulated amortisation</t>
-  </si>
-  <si>
-    <t>Software licences at cost</t>
-  </si>
-  <si>
-    <t>Goodwill at cost</t>
-  </si>
-  <si>
-    <t>Total Intangibles</t>
-  </si>
-  <si>
-    <t>106,757 (84,900)</t>
-  </si>
-  <si>
-    <t>21857</t>
-  </si>
-  <si>
-    <t>1758403</t>
-  </si>
-  <si>
-    <t>(942,307)</t>
-  </si>
-  <si>
-    <t>816096</t>
-  </si>
-  <si>
-    <t>8386960</t>
-  </si>
-  <si>
-    <t>9224913</t>
-  </si>
-  <si>
-    <t>106757</t>
-  </si>
-  <si>
-    <t>(77,936)</t>
-  </si>
-  <si>
-    <t>28821</t>
-  </si>
-  <si>
-    <t>1491350</t>
-  </si>
-  <si>
-    <t>(678,190)</t>
-  </si>
-  <si>
-    <t>813160</t>
-  </si>
-  <si>
-    <t>9228941</t>
-  </si>
-  <si>
-    <t>Balance at31 December2020</t>
-  </si>
-  <si>
-    <t>Balance at 31 December2021</t>
-  </si>
-  <si>
-    <t>Intellectual Property</t>
-  </si>
-  <si>
-    <t>35962</t>
-  </si>
-  <si>
-    <t>(7,141)</t>
-  </si>
-  <si>
-    <t>(6,964)</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>712788</t>
-  </si>
-  <si>
-    <t>280507</t>
-  </si>
-  <si>
-    <t>(180,135)</t>
-  </si>
-  <si>
-    <t>267053</t>
-  </si>
-  <si>
-    <t>(264,117)</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>9135710</t>
-  </si>
-  <si>
-    <t>(187,276)</t>
-  </si>
-  <si>
-    <t>(271,081)</t>
-  </si>
-  <si>
-    <t>12. NON-CURRENT ASSETS - PROPERTY, PLANT AND EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Display home land and buildings at cost</t>
-  </si>
-  <si>
-    <t>land - at cost</t>
-  </si>
-  <si>
-    <t>buildings - at cost</t>
-  </si>
-  <si>
-    <t>less accumulated depreciation</t>
-  </si>
-  <si>
-    <t>deposits on land for construction at cost</t>
-  </si>
-  <si>
-    <t>buildings under construction at cost</t>
-  </si>
-  <si>
-    <t>Leasehold improvements at cost</t>
-  </si>
-  <si>
-    <t>Less accumulated depreciation</t>
-  </si>
-  <si>
-    <t>Vehicles and equipment - at cost</t>
-  </si>
-  <si>
-    <t>Total Property, Plant and Equipment</t>
-  </si>
-  <si>
-    <t>8724387</t>
-  </si>
-  <si>
-    <t>7265703</t>
-  </si>
-  <si>
-    <t>(115,322)</t>
-  </si>
-  <si>
-    <t>15874768</t>
-  </si>
-  <si>
-    <t>74104</t>
-  </si>
-  <si>
-    <t>167572</t>
-  </si>
-  <si>
-    <t>16116444</t>
-  </si>
-  <si>
-    <t>3088066</t>
-  </si>
-  <si>
-    <t>(753,526)</t>
-  </si>
-  <si>
-    <t>2334540</t>
-  </si>
-  <si>
-    <t>3069878</t>
-  </si>
-  <si>
-    <t>(1,960,890)</t>
-  </si>
-  <si>
-    <t>1108988</t>
-  </si>
-  <si>
-    <t>19559972</t>
-  </si>
-  <si>
-    <t>9929053</t>
-  </si>
-  <si>
-    <t>11672028</t>
-  </si>
-  <si>
-    <t>(242,788)</t>
-  </si>
-  <si>
-    <t>21358293</t>
-  </si>
-  <si>
-    <t>188644</t>
-  </si>
-  <si>
-    <t>1152726</t>
-  </si>
-  <si>
-    <t>22699663</t>
-  </si>
-  <si>
-    <t>(575,974)</t>
-  </si>
-  <si>
-    <t>2512092</t>
-  </si>
-  <si>
-    <t>3557586</t>
-  </si>
-  <si>
-    <t>(1,825,346)</t>
-  </si>
-  <si>
-    <t>1732240</t>
-  </si>
-  <si>
-    <t>26943995</t>
-  </si>
-  <si>
-    <t>Balance at 1J January 2020</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Balance at31 December 2020</t>
-  </si>
-  <si>
-    <t>Land and</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>at cost</t>
-  </si>
-  <si>
-    <t>21562177</t>
-  </si>
-  <si>
-    <t>3642707</t>
-  </si>
-  <si>
-    <t>(2,403,255)</t>
-  </si>
-  <si>
-    <t>(101,966)</t>
-  </si>
-  <si>
-    <t>2255475</t>
-  </si>
-  <si>
-    <t>(8,719,477)</t>
-  </si>
-  <si>
-    <t>(119,217)</t>
-  </si>
-  <si>
-    <t>Leasehold</t>
-  </si>
-  <si>
-    <t>improvements</t>
-  </si>
-  <si>
-    <t>2691908</t>
-  </si>
-  <si>
-    <t>(179,816)</t>
-  </si>
-  <si>
-    <t>(177,552)</t>
-  </si>
-  <si>
-    <t>Vehicles and</t>
-  </si>
-  <si>
-    <t>equipment</t>
-  </si>
-  <si>
-    <t>1873028</t>
-  </si>
-  <si>
-    <t>421366</t>
-  </si>
-  <si>
-    <t>(14,666)</t>
-  </si>
-  <si>
-    <t>(547,488)</t>
-  </si>
-  <si>
-    <t>48920</t>
-  </si>
-  <si>
-    <t>(202,197)</t>
-  </si>
-  <si>
-    <t>(469,975)</t>
-  </si>
-  <si>
-    <t>26127113</t>
-  </si>
-  <si>
-    <t>4064073</t>
-  </si>
-  <si>
-    <t>(2,417,921)</t>
-  </si>
-  <si>
-    <t>(829,270)</t>
-  </si>
-  <si>
-    <t>2304395</t>
-  </si>
-  <si>
-    <t>(8,921,674)</t>
-  </si>
-  <si>
-    <t>(766,744)</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>The prima facie tax on profit from ordinary activities before</t>
-  </si>
-  <si>
-    <t>income tax is reconciled to the income tax as follows:</t>
-  </si>
-  <si>
-    <t>Prima facie tax payable of profitf from ordinary activities before income tax at 30%</t>
-  </si>
-  <si>
-    <t>Add the tax effectof:</t>
-  </si>
-  <si>
-    <t>non-assessable income</t>
-  </si>
-  <si>
-    <t>non-allowable deductions</t>
-  </si>
-  <si>
-    <t>(over) under provision in prioryear</t>
-  </si>
-  <si>
-    <t>Income tax expense</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Cash on hand</t>
-  </si>
-  <si>
-    <t>Cash at bank</t>
-  </si>
-  <si>
-    <t>Cash on term deposit</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Trade receivables</t>
-  </si>
-  <si>
-    <t>Other receivables</t>
-  </si>
-  <si>
-    <t>Loans to director related entity</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>Work in progress at cost</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Contract acquisition costs</t>
-  </si>
-  <si>
-    <t>Deposits and bonds</t>
-  </si>
-  <si>
-    <t>Prepayments</t>
-  </si>
-  <si>
-    <t>11. NON-CURRENT ASSETS - DEFERRED TAX</t>
-  </si>
-  <si>
-    <t>Deferred</t>
-  </si>
-  <si>
-    <t>2388500</t>
-  </si>
-  <si>
-    <t>(137,043)</t>
-  </si>
-  <si>
-    <t>26268</t>
-  </si>
-  <si>
-    <t>40163</t>
-  </si>
-  <si>
-    <t>2317888</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>43336531</t>
-  </si>
-  <si>
-    <t>1436591</t>
-  </si>
-  <si>
-    <t>44774137</t>
-  </si>
-  <si>
-    <t>5812434</t>
-  </si>
-  <si>
-    <t>395052</t>
-  </si>
-  <si>
-    <t>10642</t>
-  </si>
-  <si>
-    <t>6218128</t>
-  </si>
-  <si>
-    <t>10777883</t>
-  </si>
-  <si>
-    <t>1488538</t>
-  </si>
-  <si>
-    <t>543750</t>
-  </si>
-  <si>
-    <t>569586</t>
-  </si>
-  <si>
-    <t>2601874</t>
-  </si>
-  <si>
-    <t>1673942</t>
-  </si>
-  <si>
-    <t>(72,940)</t>
-  </si>
-  <si>
-    <t>(42,160)</t>
-  </si>
-  <si>
-    <t>31013</t>
-  </si>
-  <si>
-    <t>1589855</t>
-  </si>
-  <si>
-    <t>30585444</t>
-  </si>
-  <si>
-    <t>1427754</t>
-  </si>
-  <si>
-    <t>32014213</t>
-  </si>
-  <si>
-    <t>9480234</t>
-  </si>
-  <si>
-    <t>230805</t>
-  </si>
-  <si>
-    <t>9392</t>
-  </si>
-  <si>
-    <t>9720431</t>
-  </si>
-  <si>
-    <t>22912737</t>
-  </si>
-  <si>
-    <t>1008152</t>
-  </si>
-  <si>
-    <t>945660</t>
-  </si>
-  <si>
-    <t>691779</t>
-  </si>
-  <si>
-    <t>2645591</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
-  </si>
-  <si>
-    <t>Revenue from Contracts with Customers</t>
-  </si>
-  <si>
-    <t>Rendering of construction services</t>
-  </si>
-  <si>
-    <t>Ready built home and land sales</t>
-  </si>
-  <si>
-    <t>Other Income</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Other revenue</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>OTHER GAINS OR LOSSES</t>
-  </si>
-  <si>
-    <t>Net gain (loss) on disposal of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Other Gains or Losses</t>
-  </si>
-  <si>
-    <t>EXPENSES</t>
-  </si>
-  <si>
-    <t>Cost of Sales</t>
-  </si>
-  <si>
-    <t>Cost of construction</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Plant and equipment</t>
-  </si>
-  <si>
-    <t>Total Depreciation</t>
-  </si>
-  <si>
-    <t>Intellectual property</t>
-  </si>
-  <si>
-    <t>Right of use assets</t>
-  </si>
-  <si>
-    <t>Total Amortisation</t>
-  </si>
-  <si>
-    <t>Total Depreciation and Ai mortisation</t>
-  </si>
-  <si>
-    <t>Finance Expense</t>
-  </si>
-  <si>
-    <t>Lease liability interest</t>
-  </si>
-  <si>
-    <t>Interest on borrowings</t>
-  </si>
-  <si>
-    <t>Total Finance Expense</t>
-  </si>
-  <si>
-    <t>Superannuation Expense</t>
-  </si>
-  <si>
-    <t>Superannuation guarantee contribution expense</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>100 years</t>
-  </si>
-  <si>
-    <t>5-15 years</t>
-  </si>
-  <si>
-    <t>3-20 years</t>
-  </si>
-  <si>
-    <t>for theyear ended 31 December 2021</t>
-  </si>
-  <si>
-    <t>CASH FLOWS FROM OPERATING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>Receipts from customers</t>
-  </si>
-  <si>
-    <t>Payments to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>Income tax refunded (paid)</t>
-  </si>
-  <si>
-    <t>Net Cash Provided by (Used in) Operating A ctivities</t>
-  </si>
-  <si>
-    <t>CASH FLOWS FROM INVESTING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Payments forintellectual property and licences</t>
-  </si>
-  <si>
-    <t>Proceeds from sale of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Net Cash Provided by (Used in) Investing Activities</t>
-  </si>
-  <si>
-    <t>CASH FLOWS FROM FINANCING ACTIVITIES</t>
-  </si>
-  <si>
-    <t>Payment of principal portion oflease liabilities</t>
-  </si>
-  <si>
-    <t>Loans with director related entities - payments made</t>
-  </si>
-  <si>
-    <t>Proceeds from borrowings</t>
-  </si>
-  <si>
-    <t>Repayment of borrowings</t>
-  </si>
-  <si>
-    <t>Net Cash Provided by (Used in) Financing Activities</t>
-  </si>
-  <si>
-    <t>Net Increase (Decrease) in Cash Held</t>
-  </si>
-  <si>
-    <t>Cash at the beginning of the year</t>
-  </si>
-  <si>
-    <t>CASH AND CASH EQUIVALENTS AT THE END OF THE YEAR</t>
-  </si>
-  <si>
-    <t>Wisdom Properties Group Pty Limited</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>184866217</t>
-  </si>
-  <si>
-    <t>(154,619,006)</t>
-  </si>
-  <si>
-    <t>176382</t>
-  </si>
-  <si>
-    <t>(111,266)</t>
-  </si>
-  <si>
-    <t>(1,486,052)</t>
-  </si>
-  <si>
-    <t>(2,304,395)</t>
-  </si>
-  <si>
-    <t>(267,053)</t>
-  </si>
-  <si>
-    <t>12770201</t>
-  </si>
-  <si>
-    <t>10198753</t>
-  </si>
-  <si>
-    <t>(1,250)</t>
-  </si>
-  <si>
-    <t>(20,000,000)</t>
-  </si>
-  <si>
-    <t>(26,265,104)</t>
-  </si>
-  <si>
-    <t>12759924</t>
-  </si>
-  <si>
-    <t>164801345</t>
-  </si>
-  <si>
-    <t>(177,628,175)</t>
-  </si>
-  <si>
-    <t>243827</t>
-  </si>
-  <si>
-    <t>(158,904)</t>
-  </si>
-  <si>
-    <t>424367</t>
-  </si>
-  <si>
-    <t>(4,064,073)</t>
-  </si>
-  <si>
-    <t>(280,507)</t>
-  </si>
-  <si>
-    <t>3454843</t>
-  </si>
-  <si>
-    <t>(889,737)</t>
-  </si>
-  <si>
-    <t>(8,753)</t>
-  </si>
-  <si>
-    <t>13601172</t>
-  </si>
-  <si>
-    <t>393895</t>
-  </si>
-  <si>
-    <t>31620318</t>
-  </si>
-  <si>
-    <t>Other comprehensive income for the year, net of tax</t>
-  </si>
-  <si>
-    <t>Total comprehensive income for the year</t>
-  </si>
-  <si>
-    <t>Transactions with owners in their capacity as owners:</t>
-  </si>
-  <si>
-    <t>Dividend paid</t>
-  </si>
-  <si>
-    <t>Total transactions with owners in their capacity as owners</t>
-  </si>
-  <si>
-    <t>Balance at 31 December 2020</t>
-  </si>
-  <si>
-    <t>Balance at 1 January 2021</t>
-  </si>
-  <si>
-    <t>Profit afterincome tax exp pense for the year</t>
-  </si>
-  <si>
-    <t>Balance at31 December 2021</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Issued</t>
-  </si>
-  <si>
-    <t>Retained Profits $</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>60641861</t>
-  </si>
-  <si>
-    <t>58927178</t>
-  </si>
-  <si>
-    <t>59537848</t>
-  </si>
-  <si>
-    <t>CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Trade and other receivables</t>
-  </si>
-  <si>
-    <t>Inventories</t>
-  </si>
-  <si>
-    <t>Prepayments and otherassets</t>
-  </si>
-  <si>
-    <t>TOTAL CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>NON-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>Deferred tax assets</t>
-  </si>
-  <si>
-    <t>Property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Intangibles</t>
-  </si>
-  <si>
-    <t>TOTAL NON-CURRENT AS SSETS</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
-    <t>Interest-bearing loans</t>
-  </si>
-  <si>
-    <t>Contract liabilities</t>
-  </si>
-  <si>
-    <t>TOTAL CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>NON-CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>Deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>TOTA L NON-CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>TOTAI L LIABILITIES</t>
-  </si>
-  <si>
-    <t>NET ASSETS</t>
-  </si>
-  <si>
-    <t>EQUITY</t>
-  </si>
-  <si>
-    <t>TOTAL EQUITY</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>64372022</t>
@@ -1616,9 +1629,6 @@
     <t>53101900</t>
   </si>
   <si>
-    <t>for the year ended 31 December 2021</t>
-  </si>
-  <si>
     <t>Revenue from contracts with customers</t>
   </si>
   <si>
@@ -1650,9 +1660,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>5</t>
@@ -2091,9 +2098,6 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -2166,7 +2170,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2207,145 +2211,135 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2349,269 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,251 +2636,140 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="D3" t="s">
-        <v>114</v>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>185</v>
+      <c r="A6" t="s">
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" t="s">
-        <v>186</v>
+      <c r="A7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
       <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>18</v>
+      <c r="A9" t="s">
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>205</v>
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" t="s">
-        <v>216</v>
+      <c r="A11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="D12" t="s">
-        <v>207</v>
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>19</v>
+      <c r="A13" t="s">
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="D22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="D23" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="D24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" t="s">
-        <v>201</v>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2632,9 +2777,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2655,111 +2800,90 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>30</v>
+      <c r="B2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>221</v>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>222</v>
+      <c r="B6" t="s">
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>223</v>
+      <c r="B7" t="s">
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>224</v>
+      <c r="B9" t="s">
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>223</v>
+      <c r="B10" t="s">
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2767,9 +2891,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2794,818 +3172,187 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>30</v>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
+        <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s">
-        <v>252</v>
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D10" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" t="s">
         <v>306</v>
       </c>
-      <c r="D13" t="s">
-        <v>320</v>
-      </c>
       <c r="E13" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>343</v>
-      </c>
-      <c r="B18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C28" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>353</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3614,6 +3361,287 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -3640,17 +3668,17 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C4">
         <v>101848470</v>
@@ -3661,7 +3689,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C5">
         <v>55561854</v>
@@ -3680,12 +3708,12 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C8">
         <v>176382</v>
@@ -3696,7 +3724,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="C9">
         <v>555989</v>
@@ -3715,7 +3743,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C11">
         <v>158142695</v>
@@ -3729,12 +3757,12 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C13">
         <v>3848527</v>
@@ -3745,7 +3773,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C14">
         <v>3848527</v>
@@ -3759,17 +3787,17 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C17">
         <v>124199537</v>
@@ -3780,12 +3808,12 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C19">
         <v>119217</v>
@@ -3796,7 +3824,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C20">
         <v>647527</v>
@@ -3807,7 +3835,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C21">
         <v>766744</v>
@@ -3818,12 +3846,12 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C23">
         <v>6964</v>
@@ -3834,7 +3862,7 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C24">
         <v>264117</v>
@@ -3845,7 +3873,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C25">
         <v>1118562</v>
@@ -3856,7 +3884,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C26">
         <v>1389643</v>
@@ -3867,7 +3895,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C27">
         <v>2156387</v>
@@ -3878,12 +3906,12 @@
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C29">
         <v>192854</v>
@@ -3894,7 +3922,7 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C30">
         <v>111266</v>
@@ -3905,7 +3933,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C31">
         <v>304120</v>
@@ -3916,60 +3944,18 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="C33">
         <v>1481976</v>
       </c>
       <c r="D33">
         <v>1392033</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3979,42 +3965,48 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>416</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4210,6 +4202,51 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4232,16 +4269,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4265,234 +4302,234 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D14" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C26" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D26" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4500,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -4527,24 +4564,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4552,24 +4589,24 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4579,172 +4616,172 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>458</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -4752,9 +4789,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4775,367 +4812,378 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>487</v>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
       </c>
       <c r="C5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" t="s">
         <v>366</v>
-      </c>
-      <c r="D5" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
+        <v>476</v>
+      </c>
+      <c r="B6" t="s">
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>491</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
+        <v>477</v>
+      </c>
+      <c r="B7" t="s">
+        <v>501</v>
       </c>
       <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" t="s">
         <v>371</v>
-      </c>
-      <c r="D7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>502</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>479</v>
+      </c>
+      <c r="C9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>281</v>
+        <v>481</v>
+      </c>
+      <c r="B11" t="s">
+        <v>503</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
+        <v>482</v>
+      </c>
+      <c r="B12" t="s">
+        <v>504</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
+        <v>394</v>
+      </c>
+      <c r="B13" t="s">
+        <v>505</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>483</v>
+      </c>
+      <c r="B14" t="s">
+        <v>506</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>485</v>
+      </c>
+      <c r="C16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>500</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>514</v>
-      </c>
-      <c r="D17" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
+        <v>487</v>
+      </c>
+      <c r="B18" t="s">
+        <v>507</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>501</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
+        <v>488</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>204</v>
+        <v>489</v>
+      </c>
+      <c r="B20" t="s">
+        <v>508</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>502</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>509</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>515</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>523</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>491</v>
+      </c>
+      <c r="C23" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" t="s">
-        <v>151</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
+        <v>488</v>
+      </c>
+      <c r="B25" t="s">
+        <v>510</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B26">
-        <v>21</v>
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>511</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>493</v>
+      </c>
+      <c r="B27" t="s">
+        <v>512</v>
       </c>
       <c r="C27" t="s">
-        <v>516</v>
-      </c>
-      <c r="D27" t="s">
-        <v>524</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C28" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C29" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>496</v>
+      </c>
+      <c r="C30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" t="s">
-        <v>210</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>513</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>510</v>
+        <v>498</v>
+      </c>
+      <c r="B33" t="s">
+        <v>514</v>
       </c>
       <c r="C33" t="s">
-        <v>486</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>485</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5143,7 +5191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -5167,16 +5215,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5200,134 +5248,137 @@
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>533</v>
+      </c>
+      <c r="B9" t="s">
+        <v>541</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>535</v>
+      </c>
+      <c r="B11" t="s">
+        <v>541</v>
       </c>
       <c r="C11" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D12" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D15" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5388,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5368,8 +5419,13 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5398,217 +5454,217 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5703,8 +5759,14 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5714,7 +5776,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>98</v>
@@ -5723,22 +5785,22 @@
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>99</v>
@@ -5747,12 +5809,12 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>100</v>
@@ -5761,12 +5823,12 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>101</v>
@@ -5775,12 +5837,12 @@
         <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>102</v>
@@ -5791,7 +5853,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
@@ -5800,7 +5862,7 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5814,7 +5876,7 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5862,163 +5924,163 @@
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6028,53 +6090,47 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>114</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6103,12 +6159,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>1370000</v>
@@ -6119,22 +6175,22 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>1370000</v>
